--- a/2 - Excel/Final Project/Part 1/Montgomery_Fleet_Equipment_Inventory_FA_PART_1_START.xlsx
+++ b/2 - Excel/Final Project/Part 1/Montgomery_Fleet_Equipment_Inventory_FA_PART_1_START.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODES\IBM---Data-Analyst---Professinal-Certificate\2 - Excel\Final Project\Part 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F387C586-3D2A-4CA7-9330-FEA3DE856612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8145EF57-1FD8-467A-946E-9E524A062A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Montgomery_Fleet_Equipment_Inve" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t>Department</t>
   </si>
@@ -31,102 +40,30 @@
     <t>Equipment Count</t>
   </si>
   <si>
-    <t>Board of</t>
-  </si>
-  <si>
-    <t>Elections</t>
-  </si>
-  <si>
     <t>Van</t>
   </si>
   <si>
     <t>Off Road VehicleEquipment</t>
   </si>
   <si>
-    <t>Circuit</t>
-  </si>
-  <si>
-    <t>Court</t>
-  </si>
-  <si>
     <t>SUV</t>
   </si>
   <si>
-    <t>Community Engagement</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>Pick Up  Trucks</t>
-  </si>
-  <si>
-    <t>Community Use of Public</t>
-  </si>
-  <si>
-    <t>Facilities</t>
-  </si>
-  <si>
     <t>Sedan</t>
   </si>
   <si>
-    <t>Consumer</t>
-  </si>
-  <si>
-    <t>Protection</t>
-  </si>
-  <si>
-    <t>Correction and</t>
-  </si>
-  <si>
-    <t>Rehabilitation</t>
-  </si>
-  <si>
-    <t>Rehabilltation</t>
-  </si>
-  <si>
-    <t>Public  Safety Sedan</t>
-  </si>
-  <si>
-    <t>Public  Safety SUV</t>
-  </si>
-  <si>
     <t>Pick Up Trucks</t>
   </si>
   <si>
     <t>CUV</t>
   </si>
   <si>
-    <t>County Executives</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
     <t>Public Safety SUV</t>
   </si>
   <si>
-    <t>Economic</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>Enviromnental</t>
-  </si>
-  <si>
     <t>Medium Duty</t>
   </si>
   <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Fire and</t>
-  </si>
-  <si>
-    <t>Rescue</t>
-  </si>
-  <si>
     <t>Public Safety Pick Up Trucks</t>
   </si>
   <si>
@@ -136,9 +73,6 @@
     <t>Public Safety Van</t>
   </si>
   <si>
-    <t>Recsue</t>
-  </si>
-  <si>
     <t>Public Safety CUV</t>
   </si>
   <si>
@@ -151,22 +85,64 @@
     <t>Transit Bus</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Servcies</t>
-  </si>
-  <si>
-    <t>Health and Human</t>
+    <t>Off Road Vehicle Equipment</t>
+  </si>
+  <si>
+    <t>Board of Elections</t>
+  </si>
+  <si>
+    <t>Board of  Elections</t>
+  </si>
+  <si>
+    <t>Circuit Court</t>
+  </si>
+  <si>
+    <t>Community Engagement Cluster</t>
+  </si>
+  <si>
+    <t>Community Use of Public Facilities</t>
+  </si>
+  <si>
+    <t>Consumer Protection</t>
+  </si>
+  <si>
+    <t>Correction and Rehabilitation</t>
+  </si>
+  <si>
+    <t>Correction and Rehabilltation</t>
+  </si>
+  <si>
+    <t>County Executives Office</t>
+  </si>
+  <si>
+    <t>Economic Development</t>
+  </si>
+  <si>
+    <t>Enviromnental Protection</t>
+  </si>
+  <si>
+    <t>Fire and Rescue</t>
+  </si>
+  <si>
+    <t>Fire and Recsue</t>
+  </si>
+  <si>
+    <t>General Services</t>
+  </si>
+  <si>
+    <t>General Servcies</t>
+  </si>
+  <si>
+    <t>Health and Human Services</t>
+  </si>
+  <si>
+    <t>Health and Human Servcies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1000,819 +976,600 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
         <v>17</v>
       </c>
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
         <v>15</v>
       </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38">
+      <c r="B53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63">
+      <c r="C53">
         <v>75</v>
       </c>
     </row>
